--- a/data/Polishing Production Orders JUNHO2017_20180409.xlsx
+++ b/data/Polishing Production Orders JUNHO2017_20180409.xlsx
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +738,8 @@
         <v>3171</v>
       </c>
       <c r="B2" s="4">
-        <f>5*100000</f>
-        <v>500000</v>
+        <f>5*1000</f>
+        <v>5000</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -771,8 +771,8 @@
         <v>3186</v>
       </c>
       <c r="B3" s="4">
-        <f>7*10000</f>
-        <v>70000</v>
+        <f>7*100</f>
+        <v>700</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -842,7 +842,7 @@
         <v>3202</v>
       </c>
       <c r="B5" s="4">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
@@ -874,7 +874,7 @@
         <v>3202</v>
       </c>
       <c r="B6" s="4">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>39</v>
@@ -909,7 +909,7 @@
         <v>3204</v>
       </c>
       <c r="B7" s="4">
-        <v>120000</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>33</v>
@@ -941,7 +941,7 @@
         <v>3257</v>
       </c>
       <c r="B8" s="4">
-        <v>140000</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -973,7 +973,7 @@
         <v>3267</v>
       </c>
       <c r="B9" s="4">
-        <v>160000</v>
+        <v>1600</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1008,7 +1008,7 @@
         <v>3273</v>
       </c>
       <c r="B10" s="4">
-        <v>180000</v>
+        <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
@@ -1040,7 +1040,7 @@
         <v>3275</v>
       </c>
       <c r="B11" s="4">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
@@ -1072,7 +1072,7 @@
         <v>3277</v>
       </c>
       <c r="B12" s="4">
-        <v>220000</v>
+        <v>500</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1107,7 +1107,7 @@
         <v>3285</v>
       </c>
       <c r="B13" s="4">
-        <v>24000</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
@@ -1139,7 +1139,7 @@
         <v>3289</v>
       </c>
       <c r="B14" s="4">
-        <v>26000</v>
+        <v>2600</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1172,7 +1172,7 @@
         <v>3295</v>
       </c>
       <c r="B15" s="4">
-        <v>28000</v>
+        <v>2800</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
@@ -1204,7 +1204,7 @@
         <v>3296</v>
       </c>
       <c r="B16" s="4">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>47</v>
@@ -1239,7 +1239,7 @@
         <v>3298</v>
       </c>
       <c r="B17" s="4">
-        <v>32000</v>
+        <v>3200</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1271,7 +1271,7 @@
         <v>3299</v>
       </c>
       <c r="B18" s="4">
-        <v>34000</v>
+        <v>5400</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1303,7 +1303,7 @@
         <v>3305</v>
       </c>
       <c r="B19" s="4">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>3305</v>
       </c>
       <c r="B20" s="4">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>43</v>
@@ -1370,7 +1370,7 @@
         <v>3317</v>
       </c>
       <c r="B21" s="4">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>41</v>
@@ -1402,7 +1402,7 @@
         <v>3319</v>
       </c>
       <c r="B22" s="4">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -1434,7 +1434,7 @@
         <v>3327</v>
       </c>
       <c r="B23" s="4">
-        <v>27000</v>
+        <v>2700</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
@@ -1466,7 +1466,7 @@
         <v>3344</v>
       </c>
       <c r="B24" s="4">
-        <v>55000</v>
+        <v>1500</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>37</v>
@@ -1501,7 +1501,7 @@
         <v>3345</v>
       </c>
       <c r="B25" s="4">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>3359</v>
       </c>
       <c r="B26" s="4">
-        <v>350000</v>
+        <v>3500</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>3383</v>
       </c>
       <c r="B27" s="4">
-        <v>270000</v>
+        <v>2700</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>3393</v>
       </c>
       <c r="B28" s="4">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>3404</v>
       </c>
       <c r="B29" s="4">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
@@ -1670,7 +1670,7 @@
         <v>3418</v>
       </c>
       <c r="B30" s="4">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
